--- a/db/documents/NZEMN5-P45金型の妥当性確認記録.xlsx
+++ b/db/documents/NZEMN5-P45金型の妥当性確認記録.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mhin25\Desktop\妥当性報告書_20231019\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="28920" windowHeight="15990"/>
   </bookViews>
@@ -19,12 +24,12 @@
     <definedName name="型種類">金型の妥当性確認記録!#REF!</definedName>
     <definedName name="総抜き型">金型の妥当性確認記録!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="114210"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="85">
   <si>
     <t>管理番号</t>
     <rPh sb="0" eb="2">
@@ -322,17 +327,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>OK   (n=     )　　→⑤へ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>OK   (n=     ・ Cpk 1.67以上)</t>
-    <rPh sb="23" eb="25">
-      <t>イジョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>備考/仕様</t>
     <rPh sb="3" eb="5">
       <t>シヨウ</t>
@@ -397,43 +391,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">  　  　  　　　　年　　　月　　　日　※車載用途以外の試作品に関しては、Cpk確認は対象外とする</t>
-    <rPh sb="12" eb="13">
-      <t>ネン</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>ツキ</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>ヒ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>シャサイ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>ヨウト</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>イガイ</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>シサク</t>
-    </rPh>
-    <rPh sb="32" eb="33">
-      <t>ヒン</t>
-    </rPh>
-    <rPh sb="34" eb="35">
-      <t>カン</t>
-    </rPh>
-    <rPh sb="42" eb="44">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="45" eb="48">
-      <t>タイショウガイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>1.金型　　2.機械加工（　　　　             　　　　　　）</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -612,6 +569,87 @@
     </rPh>
     <rPh sb="12" eb="14">
       <t>コウテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※車載用途以外の試作品に関しては、Cpk確認は対象外とする</t>
+    <rPh sb="1" eb="3">
+      <t>シャサイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヨウト</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シサク</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ヒン</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="23" eb="26">
+      <t>タイショウガイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　　 　(          510          )　ショット　　　　　※500ショット以上</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OK   (n=5     )　　→⑤へ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>石栗</t>
+    <rPh sb="0" eb="2">
+      <t>イシグリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>平野</t>
+    <rPh sb="0" eb="2">
+      <t>ヒラノ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OK   (n=32     ・ Cpk 1.67以上)</t>
+    <rPh sb="25" eb="27">
+      <t>イジョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>合格</t>
+    <rPh sb="0" eb="2">
+      <t>ゴウカク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>浅野</t>
+    <rPh sb="0" eb="2">
+      <t>アサノ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>曲げ高さバラつきあり</t>
+    <rPh sb="0" eb="1">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>タカ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -619,14 +657,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
     <numFmt numFmtId="177" formatCode="0.000&quot;mm&quot;"/>
     <numFmt numFmtId="178" formatCode="0.E+00"/>
     <numFmt numFmtId="179" formatCode="0.0_ "/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1501,7 +1539,7 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="142">
+  <cellXfs count="144">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1523,12 +1561,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1550,9 +1582,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1642,25 +1671,157 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1672,193 +1833,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="3" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="3" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="3" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="179" fontId="6" fillId="3" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="6" fillId="3" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1885,43 +1869,103 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="6" fillId="3" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="3" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="3" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1931,6 +1975,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1952,9 +2004,7 @@
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="2" name="円/楕円 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}"/>
-          </a:extLst>
+          <a:extLst/>
         </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
@@ -2015,9 +2065,7 @@
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="3" name="円/楕円 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}"/>
-          </a:extLst>
+          <a:extLst/>
         </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
@@ -2108,11 +2156,251 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>247650</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="楕円 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1933575" y="9601200"/>
+          <a:ext cx="466725" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>247650</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="楕円 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2381250" y="4076700"/>
+          <a:ext cx="466725" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>257175</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="楕円 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2066925" y="8229600"/>
+          <a:ext cx="466725" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>257175</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="楕円 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2057400" y="8505825"/>
+          <a:ext cx="466725" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2154,7 +2442,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2186,9 +2474,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2220,6 +2509,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2395,570 +2685,576 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AB42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="2.625" customWidth="1"/>
     <col min="2" max="23" width="4.5" customWidth="1"/>
     <col min="27" max="27" width="21.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:28" ht="15" customHeight="1" thickBot="1">
-      <c r="B1" s="58" t="str">
+    <row r="1" spans="2:28" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="114" t="str">
         <f>VLOOKUP(N2,Z12:AA14,2,0)</f>
         <v>KGS005-GTS034-3</v>
       </c>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-    </row>
-    <row r="2" spans="2:28" ht="21.75" customHeight="1">
-      <c r="B2" s="70" t="s">
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
+    </row>
+    <row r="2" spans="2:28" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B2" s="125" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" s="126"/>
+      <c r="D2" s="126"/>
+      <c r="E2" s="126"/>
+      <c r="F2" s="126"/>
+      <c r="G2" s="126"/>
+      <c r="H2" s="126"/>
+      <c r="I2" s="126"/>
+      <c r="J2" s="126"/>
+      <c r="K2" s="126"/>
+      <c r="L2" s="126"/>
+      <c r="M2" s="127"/>
+      <c r="N2" s="134" t="s">
+        <v>59</v>
+      </c>
+      <c r="O2" s="134"/>
+      <c r="P2" s="134"/>
+      <c r="Q2" s="134"/>
+      <c r="R2" s="135"/>
+      <c r="S2" s="115" t="s">
+        <v>0</v>
+      </c>
+      <c r="T2" s="117"/>
+      <c r="U2" s="118"/>
+      <c r="V2" s="115" t="s">
+        <v>1</v>
+      </c>
+      <c r="W2" s="116"/>
+    </row>
+    <row r="3" spans="2:28" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B3" s="128"/>
+      <c r="C3" s="129"/>
+      <c r="D3" s="129"/>
+      <c r="E3" s="129"/>
+      <c r="F3" s="129"/>
+      <c r="G3" s="129"/>
+      <c r="H3" s="129"/>
+      <c r="I3" s="129"/>
+      <c r="J3" s="129"/>
+      <c r="K3" s="129"/>
+      <c r="L3" s="129"/>
+      <c r="M3" s="130"/>
+      <c r="N3" s="136"/>
+      <c r="O3" s="136"/>
+      <c r="P3" s="136"/>
+      <c r="Q3" s="136"/>
+      <c r="R3" s="137"/>
+      <c r="S3" s="119" t="s">
+        <v>73</v>
+      </c>
+      <c r="T3" s="120"/>
+      <c r="U3" s="121"/>
+      <c r="V3" s="63"/>
+      <c r="W3" s="52"/>
+    </row>
+    <row r="4" spans="2:28" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="131"/>
+      <c r="C4" s="132"/>
+      <c r="D4" s="132"/>
+      <c r="E4" s="132"/>
+      <c r="F4" s="132"/>
+      <c r="G4" s="132"/>
+      <c r="H4" s="132"/>
+      <c r="I4" s="132"/>
+      <c r="J4" s="132"/>
+      <c r="K4" s="132"/>
+      <c r="L4" s="132"/>
+      <c r="M4" s="133"/>
+      <c r="N4" s="138"/>
+      <c r="O4" s="138"/>
+      <c r="P4" s="138"/>
+      <c r="Q4" s="138"/>
+      <c r="R4" s="139"/>
+      <c r="S4" s="122"/>
+      <c r="T4" s="123"/>
+      <c r="U4" s="124"/>
+      <c r="V4" s="63"/>
+      <c r="W4" s="52"/>
+      <c r="AA4" s="40" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="2:28" ht="21.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="B5" s="140" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="51"/>
+      <c r="D5" s="77"/>
+      <c r="E5" s="63" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" s="51"/>
+      <c r="G5" s="51"/>
+      <c r="H5" s="51"/>
+      <c r="I5" s="51"/>
+      <c r="J5" s="77"/>
+      <c r="K5" s="63" t="s">
+        <v>37</v>
+      </c>
+      <c r="L5" s="51"/>
+      <c r="M5" s="51"/>
+      <c r="N5" s="63" t="s">
+        <v>33</v>
+      </c>
+      <c r="O5" s="51"/>
+      <c r="P5" s="51"/>
+      <c r="Q5" s="51"/>
+      <c r="R5" s="51"/>
+      <c r="S5" s="51"/>
+      <c r="T5" s="51"/>
+      <c r="U5" s="51"/>
+      <c r="V5" s="51"/>
+      <c r="W5" s="52"/>
+      <c r="AA5" s="30" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="2:28" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B6" s="140" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="51"/>
+      <c r="D6" s="77"/>
+      <c r="E6" s="63"/>
+      <c r="F6" s="51"/>
+      <c r="G6" s="51"/>
+      <c r="H6" s="51"/>
+      <c r="I6" s="51"/>
+      <c r="J6" s="77"/>
+      <c r="K6" s="63" t="s">
+        <v>6</v>
+      </c>
+      <c r="L6" s="51"/>
+      <c r="M6" s="51"/>
+      <c r="N6" s="63" t="s">
+        <v>45</v>
+      </c>
+      <c r="O6" s="51"/>
+      <c r="P6" s="51"/>
+      <c r="Q6" s="51"/>
+      <c r="R6" s="51"/>
+      <c r="S6" s="51"/>
+      <c r="T6" s="51"/>
+      <c r="U6" s="51"/>
+      <c r="V6" s="51"/>
+      <c r="W6" s="52"/>
+      <c r="AA6" s="31" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="2:28" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B7" s="140" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="51"/>
+      <c r="D7" s="77"/>
+      <c r="E7" s="63" t="s">
+        <v>68</v>
+      </c>
+      <c r="F7" s="51"/>
+      <c r="G7" s="51"/>
+      <c r="H7" s="51"/>
+      <c r="I7" s="51"/>
+      <c r="J7" s="77"/>
+      <c r="K7" s="63" t="s">
+        <v>7</v>
+      </c>
+      <c r="L7" s="51"/>
+      <c r="M7" s="51"/>
+      <c r="N7" s="80">
+        <v>44802</v>
+      </c>
+      <c r="O7" s="81"/>
+      <c r="P7" s="81"/>
+      <c r="Q7" s="81"/>
+      <c r="R7" s="81"/>
+      <c r="S7" s="81"/>
+      <c r="T7" s="81"/>
+      <c r="U7" s="81"/>
+      <c r="V7" s="81"/>
+      <c r="W7" s="143"/>
+      <c r="AA7" s="32" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="2:28" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B8" s="140" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="51"/>
+      <c r="D8" s="77"/>
+      <c r="E8" s="63">
+        <v>1</v>
+      </c>
+      <c r="F8" s="51"/>
+      <c r="G8" s="51"/>
+      <c r="H8" s="51"/>
+      <c r="I8" s="51"/>
+      <c r="J8" s="77"/>
+      <c r="K8" s="63" t="s">
+        <v>46</v>
+      </c>
+      <c r="L8" s="51"/>
+      <c r="M8" s="51"/>
+      <c r="N8" s="63" t="s">
+        <v>72</v>
+      </c>
+      <c r="O8" s="51"/>
+      <c r="P8" s="51"/>
+      <c r="Q8" s="51"/>
+      <c r="R8" s="51"/>
+      <c r="S8" s="51"/>
+      <c r="T8" s="51"/>
+      <c r="U8" s="51"/>
+      <c r="V8" s="51"/>
+      <c r="W8" s="52"/>
+      <c r="AA8" s="33"/>
+    </row>
+    <row r="9" spans="2:28" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B9" s="96" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="97"/>
+      <c r="D9" s="98"/>
+      <c r="E9" s="141" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" s="142"/>
+      <c r="G9" s="142"/>
+      <c r="H9" s="142"/>
+      <c r="I9" s="142"/>
+      <c r="J9" s="142"/>
+      <c r="K9" s="63" t="s">
+        <v>47</v>
+      </c>
+      <c r="L9" s="51"/>
+      <c r="M9" s="51"/>
+      <c r="N9" s="63" t="s">
+        <v>71</v>
+      </c>
+      <c r="O9" s="51"/>
+      <c r="P9" s="51"/>
+      <c r="Q9" s="51"/>
+      <c r="R9" s="51"/>
+      <c r="S9" s="51"/>
+      <c r="T9" s="51"/>
+      <c r="U9" s="51"/>
+      <c r="V9" s="51"/>
+      <c r="W9" s="52"/>
+    </row>
+    <row r="10" spans="2:28" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B10" s="103" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="104"/>
+      <c r="D10" s="105"/>
+      <c r="E10" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="F10" s="28"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="28"/>
+      <c r="J10" s="28"/>
+      <c r="K10" s="28"/>
+      <c r="L10" s="28"/>
+      <c r="M10" s="28"/>
+      <c r="N10" s="28"/>
+      <c r="O10" s="28"/>
+      <c r="P10" s="28"/>
+      <c r="Q10" s="28"/>
+      <c r="R10" s="28"/>
+      <c r="S10" s="28"/>
+      <c r="T10" s="28"/>
+      <c r="U10" s="28"/>
+      <c r="V10" s="28"/>
+      <c r="W10" s="29"/>
+    </row>
+    <row r="11" spans="2:28" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="106"/>
+      <c r="C11" s="107"/>
+      <c r="D11" s="108"/>
+      <c r="E11" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="F11" s="28"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="28"/>
+      <c r="J11" s="28"/>
+      <c r="K11" s="28"/>
+      <c r="L11" s="28"/>
+      <c r="M11" s="28"/>
+      <c r="N11" s="28"/>
+      <c r="O11" s="28"/>
+      <c r="P11" s="28"/>
+      <c r="Q11" s="28"/>
+      <c r="R11" s="28"/>
+      <c r="S11" s="28"/>
+      <c r="T11" s="28"/>
+      <c r="U11" s="28"/>
+      <c r="V11" s="28"/>
+      <c r="W11" s="29"/>
+      <c r="Y11" s="39"/>
+      <c r="Z11" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA11" s="38" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="2:28" ht="21.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="B12" s="106"/>
+      <c r="C12" s="107"/>
+      <c r="D12" s="108"/>
+      <c r="E12" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="F12" s="28"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="28"/>
+      <c r="J12" s="28"/>
+      <c r="K12" s="28"/>
+      <c r="L12" s="28"/>
+      <c r="M12" s="28"/>
+      <c r="N12" s="28"/>
+      <c r="O12" s="28"/>
+      <c r="P12" s="28"/>
+      <c r="Q12" s="28"/>
+      <c r="R12" s="28"/>
+      <c r="S12" s="28"/>
+      <c r="T12" s="28"/>
+      <c r="U12" s="28"/>
+      <c r="V12" s="28"/>
+      <c r="W12" s="29"/>
+      <c r="Y12" s="39"/>
+      <c r="Z12" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="AA12" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="2:28" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B13" s="106"/>
+      <c r="C13" s="107"/>
+      <c r="D13" s="108"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="28"/>
+      <c r="J13" s="28"/>
+      <c r="K13" s="28"/>
+      <c r="L13" s="28"/>
+      <c r="M13" s="28"/>
+      <c r="N13" s="28"/>
+      <c r="O13" s="28"/>
+      <c r="P13" s="28"/>
+      <c r="Q13" s="28"/>
+      <c r="R13" s="28"/>
+      <c r="S13" s="28"/>
+      <c r="T13" s="28"/>
+      <c r="U13" s="28"/>
+      <c r="V13" s="28"/>
+      <c r="W13" s="29"/>
+      <c r="Y13" s="39"/>
+      <c r="Z13" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="AA13" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" spans="2:28" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="109"/>
+      <c r="C14" s="110"/>
+      <c r="D14" s="110"/>
+      <c r="E14" s="99" t="s">
+        <v>48</v>
+      </c>
+      <c r="F14" s="100"/>
+      <c r="G14" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="H14" s="43">
+        <v>0.3</v>
+      </c>
+      <c r="I14" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="J14" s="44">
+        <v>20</v>
+      </c>
+      <c r="K14" s="99" t="s">
+        <v>49</v>
+      </c>
+      <c r="L14" s="100"/>
+      <c r="M14" s="101">
+        <v>10</v>
+      </c>
+      <c r="N14" s="101"/>
+      <c r="O14" s="102"/>
+      <c r="P14" s="99" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q14" s="100"/>
+      <c r="R14" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="S14" s="111">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="T14" s="112"/>
+      <c r="U14" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="V14" s="111" t="s">
+        <v>74</v>
+      </c>
+      <c r="W14" s="113"/>
+      <c r="Z14" s="36" t="s">
         <v>58</v>
       </c>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
-      <c r="H2" s="71"/>
-      <c r="I2" s="71"/>
-      <c r="J2" s="71"/>
-      <c r="K2" s="71"/>
-      <c r="L2" s="71"/>
-      <c r="M2" s="72"/>
-      <c r="N2" s="79" t="s">
-        <v>62</v>
-      </c>
-      <c r="O2" s="79"/>
-      <c r="P2" s="79"/>
-      <c r="Q2" s="79"/>
-      <c r="R2" s="80"/>
-      <c r="S2" s="60" t="s">
-        <v>0</v>
-      </c>
-      <c r="T2" s="62"/>
-      <c r="U2" s="63"/>
-      <c r="V2" s="60" t="s">
-        <v>1</v>
-      </c>
-      <c r="W2" s="61"/>
-    </row>
-    <row r="3" spans="2:28" ht="21.75" customHeight="1">
-      <c r="B3" s="73"/>
-      <c r="C3" s="74"/>
-      <c r="D3" s="74"/>
-      <c r="E3" s="74"/>
-      <c r="F3" s="74"/>
-      <c r="G3" s="74"/>
-      <c r="H3" s="74"/>
-      <c r="I3" s="74"/>
-      <c r="J3" s="74"/>
-      <c r="K3" s="74"/>
-      <c r="L3" s="74"/>
-      <c r="M3" s="75"/>
-      <c r="N3" s="81"/>
-      <c r="O3" s="81"/>
-      <c r="P3" s="81"/>
-      <c r="Q3" s="81"/>
-      <c r="R3" s="82"/>
-      <c r="S3" s="64" t="s">
-        <v>76</v>
-      </c>
-      <c r="T3" s="65"/>
-      <c r="U3" s="66"/>
-      <c r="V3" s="51"/>
-      <c r="W3" s="52"/>
-    </row>
-    <row r="4" spans="2:28" ht="21.75" customHeight="1" thickBot="1">
-      <c r="B4" s="76"/>
-      <c r="C4" s="77"/>
-      <c r="D4" s="77"/>
-      <c r="E4" s="77"/>
-      <c r="F4" s="77"/>
-      <c r="G4" s="77"/>
-      <c r="H4" s="77"/>
-      <c r="I4" s="77"/>
-      <c r="J4" s="77"/>
-      <c r="K4" s="77"/>
-      <c r="L4" s="77"/>
-      <c r="M4" s="78"/>
-      <c r="N4" s="83"/>
-      <c r="O4" s="83"/>
-      <c r="P4" s="83"/>
-      <c r="Q4" s="83"/>
-      <c r="R4" s="84"/>
-      <c r="S4" s="67"/>
-      <c r="T4" s="68"/>
-      <c r="U4" s="69"/>
-      <c r="V4" s="51"/>
-      <c r="W4" s="52"/>
-      <c r="AA4" s="43" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="2:28" ht="21.75" customHeight="1" thickTop="1">
-      <c r="B5" s="48" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="49"/>
-      <c r="D5" s="50"/>
-      <c r="E5" s="51" t="s">
-        <v>41</v>
-      </c>
-      <c r="F5" s="49"/>
-      <c r="G5" s="49"/>
-      <c r="H5" s="49"/>
-      <c r="I5" s="49"/>
-      <c r="J5" s="50"/>
-      <c r="K5" s="51" t="s">
-        <v>37</v>
-      </c>
-      <c r="L5" s="49"/>
-      <c r="M5" s="49"/>
-      <c r="N5" s="51" t="s">
-        <v>33</v>
-      </c>
-      <c r="O5" s="49"/>
-      <c r="P5" s="49"/>
-      <c r="Q5" s="49"/>
-      <c r="R5" s="49"/>
-      <c r="S5" s="49"/>
-      <c r="T5" s="49"/>
-      <c r="U5" s="49"/>
-      <c r="V5" s="49"/>
-      <c r="W5" s="52"/>
-      <c r="AA5" s="33" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="6" spans="2:28" ht="21.75" customHeight="1">
-      <c r="B6" s="48" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="49"/>
-      <c r="D6" s="50"/>
-      <c r="E6" s="51"/>
-      <c r="F6" s="49"/>
-      <c r="G6" s="49"/>
-      <c r="H6" s="49"/>
-      <c r="I6" s="49"/>
-      <c r="J6" s="50"/>
-      <c r="K6" s="51" t="s">
-        <v>6</v>
-      </c>
-      <c r="L6" s="49"/>
-      <c r="M6" s="49"/>
-      <c r="N6" s="51" t="s">
-        <v>48</v>
-      </c>
-      <c r="O6" s="49"/>
-      <c r="P6" s="49"/>
-      <c r="Q6" s="49"/>
-      <c r="R6" s="49"/>
-      <c r="S6" s="49"/>
-      <c r="T6" s="49"/>
-      <c r="U6" s="49"/>
-      <c r="V6" s="49"/>
-      <c r="W6" s="52"/>
-      <c r="AA6" s="34" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="7" spans="2:28" ht="21.75" customHeight="1">
-      <c r="B7" s="48" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="49"/>
-      <c r="D7" s="50"/>
-      <c r="E7" s="51" t="s">
-        <v>71</v>
-      </c>
-      <c r="F7" s="49"/>
-      <c r="G7" s="49"/>
-      <c r="H7" s="49"/>
-      <c r="I7" s="49"/>
-      <c r="J7" s="50"/>
-      <c r="K7" s="51" t="s">
-        <v>7</v>
-      </c>
-      <c r="L7" s="49"/>
-      <c r="M7" s="49"/>
-      <c r="N7" s="93">
-        <v>44802</v>
-      </c>
-      <c r="O7" s="94"/>
-      <c r="P7" s="94"/>
-      <c r="Q7" s="94"/>
-      <c r="R7" s="94"/>
-      <c r="S7" s="94"/>
-      <c r="T7" s="94"/>
-      <c r="U7" s="94"/>
-      <c r="V7" s="94"/>
-      <c r="W7" s="95"/>
-      <c r="AA7" s="35" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="8" spans="2:28" ht="21.75" customHeight="1">
-      <c r="B8" s="48" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="49"/>
-      <c r="D8" s="50"/>
-      <c r="E8" s="51">
-        <v>1</v>
-      </c>
-      <c r="F8" s="49"/>
-      <c r="G8" s="49"/>
-      <c r="H8" s="49"/>
-      <c r="I8" s="49"/>
-      <c r="J8" s="50"/>
-      <c r="K8" s="51" t="s">
-        <v>49</v>
-      </c>
-      <c r="L8" s="49"/>
-      <c r="M8" s="49"/>
-      <c r="N8" s="51" t="s">
-        <v>75</v>
-      </c>
-      <c r="O8" s="49"/>
-      <c r="P8" s="49"/>
-      <c r="Q8" s="49"/>
-      <c r="R8" s="49"/>
-      <c r="S8" s="49"/>
-      <c r="T8" s="49"/>
-      <c r="U8" s="49"/>
-      <c r="V8" s="49"/>
-      <c r="W8" s="52"/>
-      <c r="AA8" s="36"/>
-    </row>
-    <row r="9" spans="2:28" ht="21.75" customHeight="1">
-      <c r="B9" s="55" t="s">
-        <v>42</v>
-      </c>
-      <c r="C9" s="56"/>
-      <c r="D9" s="57"/>
-      <c r="E9" s="53" t="s">
-        <v>43</v>
-      </c>
-      <c r="F9" s="54"/>
-      <c r="G9" s="54"/>
-      <c r="H9" s="54"/>
-      <c r="I9" s="54"/>
-      <c r="J9" s="54"/>
-      <c r="K9" s="51" t="s">
-        <v>50</v>
-      </c>
-      <c r="L9" s="49"/>
-      <c r="M9" s="49"/>
-      <c r="N9" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="O9" s="49"/>
-      <c r="P9" s="49"/>
-      <c r="Q9" s="49"/>
-      <c r="R9" s="49"/>
-      <c r="S9" s="49"/>
-      <c r="T9" s="49"/>
-      <c r="U9" s="49"/>
-      <c r="V9" s="49"/>
-      <c r="W9" s="52"/>
-    </row>
-    <row r="10" spans="2:28" ht="21.75" customHeight="1">
-      <c r="B10" s="121" t="s">
-        <v>40</v>
-      </c>
-      <c r="C10" s="122"/>
-      <c r="D10" s="123"/>
-      <c r="E10" s="30" t="s">
-        <v>72</v>
-      </c>
-      <c r="F10" s="31"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="31"/>
-      <c r="I10" s="31"/>
-      <c r="J10" s="31"/>
-      <c r="K10" s="31"/>
-      <c r="L10" s="31"/>
-      <c r="M10" s="31"/>
-      <c r="N10" s="31"/>
-      <c r="O10" s="31"/>
-      <c r="P10" s="31"/>
-      <c r="Q10" s="31"/>
-      <c r="R10" s="31"/>
-      <c r="S10" s="31"/>
-      <c r="T10" s="31"/>
-      <c r="U10" s="31"/>
-      <c r="V10" s="31"/>
-      <c r="W10" s="32"/>
-    </row>
-    <row r="11" spans="2:28" ht="21.75" customHeight="1" thickBot="1">
-      <c r="B11" s="124"/>
-      <c r="C11" s="125"/>
-      <c r="D11" s="126"/>
-      <c r="E11" s="30" t="s">
-        <v>78</v>
-      </c>
-      <c r="F11" s="31"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="31"/>
-      <c r="I11" s="31"/>
-      <c r="J11" s="31"/>
-      <c r="K11" s="31"/>
-      <c r="L11" s="31"/>
-      <c r="M11" s="31"/>
-      <c r="N11" s="31"/>
-      <c r="O11" s="31"/>
-      <c r="P11" s="31"/>
-      <c r="Q11" s="31"/>
-      <c r="R11" s="31"/>
-      <c r="S11" s="31"/>
-      <c r="T11" s="31"/>
-      <c r="U11" s="31"/>
-      <c r="V11" s="31"/>
-      <c r="W11" s="32"/>
-      <c r="Y11" s="42"/>
-      <c r="Z11" s="41" t="s">
-        <v>64</v>
-      </c>
-      <c r="AA11" s="41" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="12" spans="2:28" ht="21.75" customHeight="1" thickTop="1">
-      <c r="B12" s="124"/>
-      <c r="C12" s="125"/>
-      <c r="D12" s="126"/>
-      <c r="E12" s="30" t="s">
-        <v>73</v>
-      </c>
-      <c r="F12" s="31"/>
-      <c r="G12" s="31"/>
-      <c r="H12" s="31"/>
-      <c r="I12" s="31"/>
-      <c r="J12" s="31"/>
-      <c r="K12" s="31"/>
-      <c r="L12" s="31"/>
-      <c r="M12" s="31"/>
-      <c r="N12" s="31"/>
-      <c r="O12" s="31"/>
-      <c r="P12" s="31"/>
-      <c r="Q12" s="31"/>
-      <c r="R12" s="31"/>
-      <c r="S12" s="31"/>
-      <c r="T12" s="31"/>
-      <c r="U12" s="31"/>
-      <c r="V12" s="31"/>
-      <c r="W12" s="32"/>
-      <c r="Y12" s="42"/>
-      <c r="Z12" s="40" t="s">
-        <v>60</v>
-      </c>
-      <c r="AA12" s="40" t="s">
-        <v>59</v>
-      </c>
-      <c r="AB12" t="s">
+      <c r="AA14" s="36" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="15" spans="2:28" ht="21.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="86" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="45" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="46"/>
+      <c r="E15" s="74"/>
+      <c r="F15" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="15"/>
+      <c r="K15" s="15"/>
+      <c r="L15" s="24"/>
+      <c r="M15" s="15"/>
+      <c r="N15" s="15"/>
+      <c r="O15" s="15"/>
+      <c r="P15" s="15"/>
+      <c r="Q15" s="15"/>
+      <c r="R15" s="15"/>
+      <c r="S15" s="15"/>
+      <c r="T15" s="15"/>
+      <c r="U15" s="15"/>
+      <c r="V15" s="15"/>
+      <c r="W15" s="16"/>
+    </row>
+    <row r="16" spans="2:28" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="87"/>
+      <c r="C16" s="63" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="51"/>
+      <c r="E16" s="77"/>
+      <c r="F16" s="63" t="s">
+        <v>29</v>
+      </c>
+      <c r="G16" s="51"/>
+      <c r="H16" s="51"/>
+      <c r="I16" s="51"/>
+      <c r="J16" s="51"/>
+      <c r="K16" s="51"/>
+      <c r="L16" s="51"/>
+      <c r="M16" s="64"/>
+      <c r="N16" s="50" t="s">
+        <v>30</v>
+      </c>
+      <c r="O16" s="51"/>
+      <c r="P16" s="51"/>
+      <c r="Q16" s="51"/>
+      <c r="R16" s="51"/>
+      <c r="S16" s="51"/>
+      <c r="T16" s="51"/>
+      <c r="U16" s="51"/>
+      <c r="V16" s="51"/>
+      <c r="W16" s="52"/>
+      <c r="X16" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y16">
+        <v>510</v>
+      </c>
+      <c r="Z16" s="42"/>
+      <c r="AA16" s="41" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="13" spans="2:28" ht="21.75" customHeight="1">
-      <c r="B13" s="124"/>
-      <c r="C13" s="125"/>
-      <c r="D13" s="126"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="31"/>
-      <c r="H13" s="31"/>
-      <c r="I13" s="31"/>
-      <c r="J13" s="31"/>
-      <c r="K13" s="31"/>
-      <c r="L13" s="31"/>
-      <c r="M13" s="31"/>
-      <c r="N13" s="31"/>
-      <c r="O13" s="31"/>
-      <c r="P13" s="31"/>
-      <c r="Q13" s="31"/>
-      <c r="R13" s="31"/>
-      <c r="S13" s="31"/>
-      <c r="T13" s="31"/>
-      <c r="U13" s="31"/>
-      <c r="V13" s="31"/>
-      <c r="W13" s="32"/>
-      <c r="Y13" s="42"/>
-      <c r="Z13" s="39" t="s">
-        <v>62</v>
-      </c>
-      <c r="AA13" s="39" t="s">
-        <v>63</v>
-      </c>
-      <c r="AB13" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="14" spans="2:28" ht="21.75" customHeight="1" thickBot="1">
-      <c r="B14" s="127"/>
-      <c r="C14" s="128"/>
-      <c r="D14" s="128"/>
-      <c r="E14" s="91" t="s">
-        <v>51</v>
-      </c>
-      <c r="F14" s="92"/>
-      <c r="G14" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="H14" s="46">
-        <v>0.3</v>
-      </c>
-      <c r="I14" s="38" t="s">
-        <v>57</v>
-      </c>
-      <c r="J14" s="47">
-        <v>20</v>
-      </c>
-      <c r="K14" s="91" t="s">
-        <v>52</v>
-      </c>
-      <c r="L14" s="92"/>
-      <c r="M14" s="99">
-        <v>10</v>
-      </c>
-      <c r="N14" s="99"/>
-      <c r="O14" s="100"/>
-      <c r="P14" s="91" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q14" s="92"/>
-      <c r="R14" s="37" t="s">
-        <v>54</v>
-      </c>
-      <c r="S14" s="96">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="T14" s="97"/>
-      <c r="U14" s="37" t="s">
-        <v>55</v>
-      </c>
-      <c r="V14" s="96" t="s">
-        <v>77</v>
-      </c>
-      <c r="W14" s="98"/>
-      <c r="Z14" s="39" t="s">
-        <v>61</v>
-      </c>
-      <c r="AA14" s="39" t="s">
-        <v>66</v>
-      </c>
-      <c r="AB14" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="15" spans="2:28" ht="21.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B15" s="101" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="114" t="s">
-        <v>10</v>
-      </c>
-      <c r="D15" s="115"/>
-      <c r="E15" s="116"/>
-      <c r="F15" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="18"/>
-      <c r="J15" s="18"/>
-      <c r="K15" s="18"/>
-      <c r="L15" s="27"/>
-      <c r="M15" s="18"/>
-      <c r="N15" s="18"/>
-      <c r="O15" s="18"/>
-      <c r="P15" s="18"/>
-      <c r="Q15" s="18"/>
-      <c r="R15" s="18"/>
-      <c r="S15" s="18"/>
-      <c r="T15" s="18"/>
-      <c r="U15" s="18"/>
-      <c r="V15" s="18"/>
-      <c r="W15" s="19"/>
-    </row>
-    <row r="16" spans="2:28" ht="21.75" customHeight="1" thickBot="1">
-      <c r="B16" s="102"/>
-      <c r="C16" s="51" t="s">
-        <v>11</v>
-      </c>
-      <c r="D16" s="49"/>
-      <c r="E16" s="50"/>
-      <c r="F16" s="51" t="s">
-        <v>29</v>
-      </c>
-      <c r="G16" s="49"/>
-      <c r="H16" s="49"/>
-      <c r="I16" s="49"/>
-      <c r="J16" s="49"/>
-      <c r="K16" s="49"/>
-      <c r="L16" s="49"/>
-      <c r="M16" s="89"/>
-      <c r="N16" s="85" t="s">
-        <v>30</v>
-      </c>
-      <c r="O16" s="49"/>
-      <c r="P16" s="49"/>
-      <c r="Q16" s="49"/>
-      <c r="R16" s="49"/>
-      <c r="S16" s="49"/>
-      <c r="T16" s="49"/>
-      <c r="U16" s="49"/>
-      <c r="V16" s="49"/>
-      <c r="W16" s="52"/>
-      <c r="Z16" s="45"/>
-      <c r="AA16" s="44" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="17" spans="2:23" ht="21.75" customHeight="1">
-      <c r="B17" s="102"/>
-      <c r="C17" s="104" t="s">
+    <row r="17" spans="2:25" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B17" s="87"/>
+      <c r="C17" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="D17" s="105"/>
-      <c r="E17" s="106"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="10"/>
-      <c r="K17" s="10"/>
-      <c r="L17" s="10"/>
-      <c r="M17" s="10"/>
-      <c r="N17" s="10"/>
-      <c r="O17" s="10"/>
-      <c r="P17" s="10"/>
-      <c r="Q17" s="10"/>
-      <c r="R17" s="11"/>
-      <c r="S17" s="86" t="s">
+      <c r="D17" s="54"/>
+      <c r="E17" s="55"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="8"/>
+      <c r="N17" s="8"/>
+      <c r="O17" s="8"/>
+      <c r="P17" s="8"/>
+      <c r="Q17" s="8"/>
+      <c r="R17" s="9"/>
+      <c r="S17" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="T17" s="87"/>
-      <c r="U17" s="88"/>
-      <c r="V17" s="86" t="s">
+      <c r="T17" s="60"/>
+      <c r="U17" s="61"/>
+      <c r="V17" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="W17" s="90"/>
-    </row>
-    <row r="18" spans="2:23" ht="21.75" customHeight="1">
-      <c r="B18" s="102"/>
-      <c r="C18" s="107"/>
-      <c r="D18" s="108"/>
-      <c r="E18" s="109"/>
-      <c r="F18" s="12"/>
+      <c r="W17" s="62"/>
+    </row>
+    <row r="18" spans="2:25" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B18" s="87"/>
+      <c r="C18" s="71"/>
+      <c r="D18" s="72"/>
+      <c r="E18" s="73"/>
+      <c r="F18" s="10"/>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
@@ -2970,19 +3266,23 @@
       <c r="O18" s="2"/>
       <c r="P18" s="2"/>
       <c r="Q18" s="2"/>
-      <c r="R18" s="13"/>
-      <c r="S18" s="104"/>
-      <c r="T18" s="105"/>
-      <c r="U18" s="106"/>
-      <c r="V18" s="51"/>
+      <c r="R18" s="11"/>
+      <c r="S18" s="53">
+        <v>44797</v>
+      </c>
+      <c r="T18" s="54"/>
+      <c r="U18" s="55"/>
+      <c r="V18" s="63" t="s">
+        <v>83</v>
+      </c>
       <c r="W18" s="52"/>
     </row>
-    <row r="19" spans="2:23" ht="21.75" customHeight="1" thickBot="1">
-      <c r="B19" s="102"/>
-      <c r="C19" s="107"/>
-      <c r="D19" s="108"/>
-      <c r="E19" s="109"/>
-      <c r="F19" s="12"/>
+    <row r="19" spans="2:25" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="87"/>
+      <c r="C19" s="71"/>
+      <c r="D19" s="72"/>
+      <c r="E19" s="73"/>
+      <c r="F19" s="10"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
@@ -2994,47 +3294,47 @@
       <c r="O19" s="2"/>
       <c r="P19" s="2"/>
       <c r="Q19" s="2"/>
-      <c r="R19" s="13"/>
-      <c r="S19" s="107"/>
-      <c r="T19" s="108"/>
-      <c r="U19" s="109"/>
-      <c r="V19" s="51"/>
+      <c r="R19" s="11"/>
+      <c r="S19" s="71"/>
+      <c r="T19" s="72"/>
+      <c r="U19" s="73"/>
+      <c r="V19" s="63"/>
       <c r="W19" s="52"/>
     </row>
-    <row r="20" spans="2:23" ht="21.75" customHeight="1" thickTop="1">
-      <c r="B20" s="101" t="s">
+    <row r="20" spans="2:25" ht="21.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="B20" s="86" t="s">
         <v>14</v>
       </c>
-      <c r="C20" s="129" t="s">
+      <c r="C20" s="93" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="130"/>
-      <c r="E20" s="131"/>
-      <c r="F20" s="23"/>
-      <c r="G20" s="24"/>
-      <c r="H20" s="24"/>
-      <c r="I20" s="24"/>
-      <c r="J20" s="24"/>
-      <c r="K20" s="24"/>
-      <c r="L20" s="24"/>
-      <c r="M20" s="24"/>
-      <c r="N20" s="24"/>
-      <c r="O20" s="24"/>
-      <c r="P20" s="24"/>
-      <c r="Q20" s="24"/>
-      <c r="R20" s="24"/>
-      <c r="S20" s="24"/>
-      <c r="T20" s="24"/>
-      <c r="U20" s="24"/>
-      <c r="V20" s="24"/>
-      <c r="W20" s="25"/>
-    </row>
-    <row r="21" spans="2:23" ht="21.75" customHeight="1">
-      <c r="B21" s="102"/>
-      <c r="C21" s="107"/>
-      <c r="D21" s="108"/>
-      <c r="E21" s="109"/>
-      <c r="F21" s="12"/>
+      <c r="D20" s="94"/>
+      <c r="E20" s="95"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="21"/>
+      <c r="I20" s="21"/>
+      <c r="J20" s="21"/>
+      <c r="K20" s="21"/>
+      <c r="L20" s="21"/>
+      <c r="M20" s="21"/>
+      <c r="N20" s="21"/>
+      <c r="O20" s="21"/>
+      <c r="P20" s="21"/>
+      <c r="Q20" s="21"/>
+      <c r="R20" s="21"/>
+      <c r="S20" s="21"/>
+      <c r="T20" s="21"/>
+      <c r="U20" s="21"/>
+      <c r="V20" s="21"/>
+      <c r="W20" s="22"/>
+    </row>
+    <row r="21" spans="2:25" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B21" s="87"/>
+      <c r="C21" s="71"/>
+      <c r="D21" s="72"/>
+      <c r="E21" s="73"/>
+      <c r="F21" s="10"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
@@ -3053,37 +3353,37 @@
       <c r="V21" s="2"/>
       <c r="W21" s="3"/>
     </row>
-    <row r="22" spans="2:23" ht="21.75" customHeight="1">
-      <c r="B22" s="102"/>
-      <c r="C22" s="86"/>
-      <c r="D22" s="87"/>
-      <c r="E22" s="88"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="15"/>
-      <c r="I22" s="15"/>
-      <c r="J22" s="15"/>
-      <c r="K22" s="15"/>
-      <c r="L22" s="15"/>
-      <c r="M22" s="15"/>
-      <c r="N22" s="15"/>
-      <c r="O22" s="15"/>
-      <c r="P22" s="15"/>
-      <c r="Q22" s="15"/>
-      <c r="R22" s="15"/>
-      <c r="S22" s="15"/>
-      <c r="T22" s="15"/>
-      <c r="U22" s="15"/>
-      <c r="V22" s="15"/>
-      <c r="W22" s="26"/>
-    </row>
-    <row r="23" spans="2:23" ht="21.75" customHeight="1">
-      <c r="B23" s="102"/>
-      <c r="C23" s="104" t="s">
+    <row r="22" spans="2:25" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B22" s="87"/>
+      <c r="C22" s="59"/>
+      <c r="D22" s="60"/>
+      <c r="E22" s="61"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="13"/>
+      <c r="L22" s="13"/>
+      <c r="M22" s="13"/>
+      <c r="N22" s="13"/>
+      <c r="O22" s="13"/>
+      <c r="P22" s="13"/>
+      <c r="Q22" s="13"/>
+      <c r="R22" s="13"/>
+      <c r="S22" s="13"/>
+      <c r="T22" s="13"/>
+      <c r="U22" s="13"/>
+      <c r="V22" s="13"/>
+      <c r="W22" s="23"/>
+    </row>
+    <row r="23" spans="2:25" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B23" s="87"/>
+      <c r="C23" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="D23" s="105"/>
-      <c r="E23" s="106"/>
+      <c r="D23" s="54"/>
+      <c r="E23" s="55"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
@@ -3097,21 +3397,21 @@
       <c r="P23" s="2"/>
       <c r="Q23" s="2"/>
       <c r="R23" s="2"/>
-      <c r="S23" s="86" t="s">
+      <c r="S23" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="T23" s="87"/>
-      <c r="U23" s="88"/>
-      <c r="V23" s="86" t="s">
+      <c r="T23" s="60"/>
+      <c r="U23" s="61"/>
+      <c r="V23" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="W23" s="90"/>
-    </row>
-    <row r="24" spans="2:23" ht="21.75" customHeight="1">
-      <c r="B24" s="102"/>
-      <c r="C24" s="107"/>
-      <c r="D24" s="108"/>
-      <c r="E24" s="109"/>
+      <c r="W23" s="62"/>
+    </row>
+    <row r="24" spans="2:25" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B24" s="87"/>
+      <c r="C24" s="71"/>
+      <c r="D24" s="72"/>
+      <c r="E24" s="73"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
@@ -3125,134 +3425,134 @@
       <c r="P24" s="2"/>
       <c r="Q24" s="2"/>
       <c r="R24" s="2"/>
-      <c r="S24" s="104"/>
-      <c r="T24" s="105"/>
-      <c r="U24" s="106"/>
-      <c r="V24" s="51"/>
+      <c r="S24" s="68"/>
+      <c r="T24" s="54"/>
+      <c r="U24" s="55"/>
+      <c r="V24" s="63"/>
       <c r="W24" s="52"/>
     </row>
-    <row r="25" spans="2:23" ht="21.75" customHeight="1" thickBot="1">
-      <c r="B25" s="113"/>
-      <c r="C25" s="110"/>
-      <c r="D25" s="111"/>
-      <c r="E25" s="112"/>
-      <c r="F25" s="136" t="s">
+    <row r="25" spans="2:25" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="89"/>
+      <c r="C25" s="56"/>
+      <c r="D25" s="57"/>
+      <c r="E25" s="58"/>
+      <c r="F25" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="G25" s="137"/>
-      <c r="H25" s="137"/>
-      <c r="I25" s="137"/>
-      <c r="J25" s="137"/>
-      <c r="K25" s="137"/>
-      <c r="L25" s="137"/>
-      <c r="M25" s="137"/>
-      <c r="N25" s="137"/>
-      <c r="O25" s="137"/>
-      <c r="P25" s="137"/>
-      <c r="Q25" s="137"/>
-      <c r="R25" s="138"/>
-      <c r="S25" s="110"/>
-      <c r="T25" s="111"/>
-      <c r="U25" s="112"/>
-      <c r="V25" s="119"/>
-      <c r="W25" s="120"/>
-    </row>
-    <row r="26" spans="2:23" ht="21.75" customHeight="1" thickTop="1">
-      <c r="B26" s="101" t="s">
+      <c r="G25" s="66"/>
+      <c r="H25" s="66"/>
+      <c r="I25" s="66"/>
+      <c r="J25" s="66"/>
+      <c r="K25" s="66"/>
+      <c r="L25" s="66"/>
+      <c r="M25" s="66"/>
+      <c r="N25" s="66"/>
+      <c r="O25" s="66"/>
+      <c r="P25" s="66"/>
+      <c r="Q25" s="66"/>
+      <c r="R25" s="67"/>
+      <c r="S25" s="56"/>
+      <c r="T25" s="57"/>
+      <c r="U25" s="58"/>
+      <c r="V25" s="69"/>
+      <c r="W25" s="70"/>
+    </row>
+    <row r="26" spans="2:25" ht="21.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="B26" s="86" t="s">
         <v>18</v>
       </c>
-      <c r="C26" s="114" t="s">
+      <c r="C26" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="D26" s="115"/>
-      <c r="E26" s="116"/>
-      <c r="F26" s="17" t="s">
+      <c r="D26" s="46"/>
+      <c r="E26" s="74"/>
+      <c r="F26" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="G26" s="18"/>
-      <c r="H26" s="18"/>
-      <c r="I26" s="18"/>
-      <c r="J26" s="18"/>
-      <c r="K26" s="18"/>
-      <c r="L26" s="18"/>
-      <c r="M26" s="18"/>
-      <c r="N26" s="18"/>
-      <c r="O26" s="18"/>
-      <c r="P26" s="18"/>
-      <c r="Q26" s="18"/>
-      <c r="R26" s="18"/>
-      <c r="S26" s="18"/>
-      <c r="T26" s="18"/>
-      <c r="U26" s="18"/>
-      <c r="V26" s="18"/>
-      <c r="W26" s="19"/>
-    </row>
-    <row r="27" spans="2:23" ht="21.75" customHeight="1">
-      <c r="B27" s="102"/>
-      <c r="C27" s="51" t="s">
+      <c r="G26" s="15"/>
+      <c r="H26" s="15"/>
+      <c r="I26" s="15"/>
+      <c r="J26" s="15"/>
+      <c r="K26" s="15"/>
+      <c r="L26" s="15"/>
+      <c r="M26" s="15"/>
+      <c r="N26" s="15"/>
+      <c r="O26" s="15"/>
+      <c r="P26" s="15"/>
+      <c r="Q26" s="15"/>
+      <c r="R26" s="15"/>
+      <c r="S26" s="15"/>
+      <c r="T26" s="15"/>
+      <c r="U26" s="15"/>
+      <c r="V26" s="15"/>
+      <c r="W26" s="16"/>
+    </row>
+    <row r="27" spans="2:25" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B27" s="87"/>
+      <c r="C27" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="D27" s="49"/>
-      <c r="E27" s="50"/>
-      <c r="F27" s="51" t="s">
+      <c r="D27" s="51"/>
+      <c r="E27" s="77"/>
+      <c r="F27" s="63" t="s">
         <v>36</v>
       </c>
-      <c r="G27" s="49"/>
-      <c r="H27" s="49"/>
-      <c r="I27" s="49"/>
-      <c r="J27" s="49"/>
-      <c r="K27" s="49"/>
-      <c r="L27" s="49"/>
-      <c r="M27" s="89"/>
-      <c r="N27" s="85" t="s">
+      <c r="G27" s="51"/>
+      <c r="H27" s="51"/>
+      <c r="I27" s="51"/>
+      <c r="J27" s="51"/>
+      <c r="K27" s="51"/>
+      <c r="L27" s="51"/>
+      <c r="M27" s="64"/>
+      <c r="N27" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="O27" s="49"/>
-      <c r="P27" s="49"/>
-      <c r="Q27" s="49"/>
-      <c r="R27" s="49"/>
-      <c r="S27" s="49"/>
-      <c r="T27" s="49"/>
-      <c r="U27" s="49"/>
-      <c r="V27" s="49"/>
+      <c r="O27" s="51"/>
+      <c r="P27" s="51"/>
+      <c r="Q27" s="51"/>
+      <c r="R27" s="51"/>
+      <c r="S27" s="51"/>
+      <c r="T27" s="51"/>
+      <c r="U27" s="51"/>
+      <c r="V27" s="51"/>
       <c r="W27" s="52"/>
     </row>
-    <row r="28" spans="2:23" ht="21.75" customHeight="1">
-      <c r="B28" s="102"/>
-      <c r="C28" s="104" t="s">
+    <row r="28" spans="2:25" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B28" s="87"/>
+      <c r="C28" s="68" t="s">
         <v>20</v>
       </c>
-      <c r="D28" s="105"/>
-      <c r="E28" s="106"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="10"/>
-      <c r="I28" s="10"/>
-      <c r="J28" s="10"/>
-      <c r="K28" s="10"/>
-      <c r="L28" s="10"/>
-      <c r="M28" s="10"/>
-      <c r="N28" s="10"/>
-      <c r="O28" s="10"/>
-      <c r="P28" s="10"/>
-      <c r="Q28" s="10"/>
-      <c r="R28" s="11"/>
-      <c r="S28" s="86" t="s">
+      <c r="D28" s="54"/>
+      <c r="E28" s="55"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8"/>
+      <c r="K28" s="8"/>
+      <c r="L28" s="8"/>
+      <c r="M28" s="8"/>
+      <c r="N28" s="8"/>
+      <c r="O28" s="8"/>
+      <c r="P28" s="8"/>
+      <c r="Q28" s="8"/>
+      <c r="R28" s="9"/>
+      <c r="S28" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="T28" s="87"/>
-      <c r="U28" s="88"/>
-      <c r="V28" s="86" t="s">
+      <c r="T28" s="60"/>
+      <c r="U28" s="61"/>
+      <c r="V28" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="W28" s="90"/>
-    </row>
-    <row r="29" spans="2:23" ht="21.75" customHeight="1">
-      <c r="B29" s="102"/>
-      <c r="C29" s="107"/>
-      <c r="D29" s="108"/>
-      <c r="E29" s="109"/>
-      <c r="F29" s="12"/>
+      <c r="W28" s="62"/>
+    </row>
+    <row r="29" spans="2:25" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B29" s="87"/>
+      <c r="C29" s="71"/>
+      <c r="D29" s="72"/>
+      <c r="E29" s="73"/>
+      <c r="F29" s="10"/>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
@@ -3264,135 +3564,149 @@
       <c r="O29" s="2"/>
       <c r="P29" s="2"/>
       <c r="Q29" s="2"/>
-      <c r="R29" s="13"/>
-      <c r="S29" s="104"/>
-      <c r="T29" s="105"/>
-      <c r="U29" s="106"/>
-      <c r="V29" s="51"/>
+      <c r="R29" s="11"/>
+      <c r="S29" s="68"/>
+      <c r="T29" s="54"/>
+      <c r="U29" s="55"/>
+      <c r="V29" s="63"/>
       <c r="W29" s="52"/>
     </row>
-    <row r="30" spans="2:23" ht="21.75" customHeight="1" thickBot="1">
-      <c r="B30" s="113"/>
-      <c r="C30" s="110"/>
-      <c r="D30" s="111"/>
-      <c r="E30" s="112"/>
-      <c r="F30" s="20"/>
-      <c r="G30" s="21"/>
-      <c r="H30" s="21"/>
-      <c r="I30" s="21"/>
-      <c r="J30" s="21"/>
-      <c r="K30" s="21"/>
-      <c r="L30" s="21"/>
-      <c r="M30" s="21"/>
-      <c r="N30" s="21"/>
-      <c r="O30" s="21"/>
-      <c r="P30" s="21"/>
-      <c r="Q30" s="21"/>
-      <c r="R30" s="22"/>
-      <c r="S30" s="110"/>
-      <c r="T30" s="111"/>
-      <c r="U30" s="112"/>
-      <c r="V30" s="119"/>
-      <c r="W30" s="120"/>
-    </row>
-    <row r="31" spans="2:23" ht="21.75" customHeight="1" thickTop="1">
-      <c r="B31" s="101" t="s">
+    <row r="30" spans="2:25" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="89"/>
+      <c r="C30" s="56"/>
+      <c r="D30" s="57"/>
+      <c r="E30" s="58"/>
+      <c r="F30" s="17"/>
+      <c r="G30" s="18"/>
+      <c r="H30" s="18"/>
+      <c r="I30" s="18"/>
+      <c r="J30" s="18"/>
+      <c r="K30" s="18"/>
+      <c r="L30" s="18"/>
+      <c r="M30" s="18"/>
+      <c r="N30" s="18"/>
+      <c r="O30" s="18"/>
+      <c r="P30" s="18"/>
+      <c r="Q30" s="18"/>
+      <c r="R30" s="19"/>
+      <c r="S30" s="56"/>
+      <c r="T30" s="57"/>
+      <c r="U30" s="58"/>
+      <c r="V30" s="69"/>
+      <c r="W30" s="70"/>
+    </row>
+    <row r="31" spans="2:25" ht="21.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="B31" s="86" t="s">
         <v>21</v>
       </c>
-      <c r="C31" s="114" t="s">
+      <c r="C31" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="D31" s="115"/>
-      <c r="E31" s="116"/>
-      <c r="F31" s="51" t="s">
-        <v>38</v>
-      </c>
-      <c r="G31" s="49"/>
-      <c r="H31" s="49"/>
-      <c r="I31" s="49"/>
-      <c r="J31" s="49"/>
-      <c r="K31" s="49"/>
-      <c r="L31" s="49"/>
-      <c r="M31" s="89"/>
-      <c r="N31" s="85" t="s">
+      <c r="D31" s="46"/>
+      <c r="E31" s="74"/>
+      <c r="F31" s="63" t="s">
+        <v>78</v>
+      </c>
+      <c r="G31" s="51"/>
+      <c r="H31" s="51"/>
+      <c r="I31" s="51"/>
+      <c r="J31" s="51"/>
+      <c r="K31" s="51"/>
+      <c r="L31" s="51"/>
+      <c r="M31" s="64"/>
+      <c r="N31" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="O31" s="49"/>
-      <c r="P31" s="49"/>
-      <c r="Q31" s="49"/>
-      <c r="R31" s="49"/>
-      <c r="S31" s="49"/>
-      <c r="T31" s="49"/>
-      <c r="U31" s="49"/>
-      <c r="V31" s="49"/>
+      <c r="O31" s="51"/>
+      <c r="P31" s="51"/>
+      <c r="Q31" s="51"/>
+      <c r="R31" s="51"/>
+      <c r="S31" s="51"/>
+      <c r="T31" s="51"/>
+      <c r="U31" s="51"/>
+      <c r="V31" s="51"/>
       <c r="W31" s="52"/>
-    </row>
-    <row r="32" spans="2:23" ht="21.75" customHeight="1">
-      <c r="B32" s="102"/>
-      <c r="C32" s="51" t="s">
+      <c r="X31" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y31">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="2:25" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B32" s="87"/>
+      <c r="C32" s="63" t="s">
         <v>23</v>
       </c>
-      <c r="D32" s="49"/>
-      <c r="E32" s="50"/>
-      <c r="F32" s="51" t="s">
-        <v>38</v>
-      </c>
-      <c r="G32" s="49"/>
-      <c r="H32" s="49"/>
-      <c r="I32" s="49"/>
-      <c r="J32" s="49"/>
-      <c r="K32" s="49"/>
-      <c r="L32" s="49"/>
-      <c r="M32" s="89"/>
-      <c r="N32" s="85" t="s">
+      <c r="D32" s="51"/>
+      <c r="E32" s="77"/>
+      <c r="F32" s="63" t="s">
+        <v>78</v>
+      </c>
+      <c r="G32" s="51"/>
+      <c r="H32" s="51"/>
+      <c r="I32" s="51"/>
+      <c r="J32" s="51"/>
+      <c r="K32" s="51"/>
+      <c r="L32" s="51"/>
+      <c r="M32" s="64"/>
+      <c r="N32" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="O32" s="49"/>
-      <c r="P32" s="49"/>
-      <c r="Q32" s="49"/>
-      <c r="R32" s="49"/>
-      <c r="S32" s="49"/>
-      <c r="T32" s="49"/>
-      <c r="U32" s="49"/>
-      <c r="V32" s="49"/>
+      <c r="O32" s="51"/>
+      <c r="P32" s="51"/>
+      <c r="Q32" s="51"/>
+      <c r="R32" s="51"/>
+      <c r="S32" s="51"/>
+      <c r="T32" s="51"/>
+      <c r="U32" s="51"/>
+      <c r="V32" s="51"/>
       <c r="W32" s="52"/>
-    </row>
-    <row r="33" spans="2:23" ht="21.75" customHeight="1">
-      <c r="B33" s="102"/>
-      <c r="C33" s="104" t="s">
+      <c r="X32" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y32">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="2:25" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B33" s="87"/>
+      <c r="C33" s="68" t="s">
         <v>24</v>
       </c>
-      <c r="D33" s="105"/>
-      <c r="E33" s="106"/>
-      <c r="F33" s="9"/>
-      <c r="G33" s="10"/>
-      <c r="H33" s="10"/>
-      <c r="I33" s="10"/>
-      <c r="J33" s="10"/>
-      <c r="K33" s="10"/>
-      <c r="L33" s="10"/>
-      <c r="M33" s="10"/>
-      <c r="N33" s="10"/>
-      <c r="O33" s="10"/>
-      <c r="P33" s="10"/>
-      <c r="Q33" s="10"/>
-      <c r="R33" s="11"/>
-      <c r="S33" s="86" t="s">
+      <c r="D33" s="54"/>
+      <c r="E33" s="55"/>
+      <c r="F33" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="8"/>
+      <c r="J33" s="8"/>
+      <c r="K33" s="8"/>
+      <c r="L33" s="8"/>
+      <c r="M33" s="8"/>
+      <c r="N33" s="8"/>
+      <c r="O33" s="8"/>
+      <c r="P33" s="8"/>
+      <c r="Q33" s="8"/>
+      <c r="R33" s="9"/>
+      <c r="S33" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="T33" s="87"/>
-      <c r="U33" s="88"/>
-      <c r="V33" s="86" t="s">
+      <c r="T33" s="60"/>
+      <c r="U33" s="61"/>
+      <c r="V33" s="59" t="s">
         <v>25</v>
       </c>
-      <c r="W33" s="90"/>
-    </row>
-    <row r="34" spans="2:23" ht="21.75" customHeight="1">
-      <c r="B34" s="102"/>
-      <c r="C34" s="107"/>
-      <c r="D34" s="108"/>
-      <c r="E34" s="109"/>
-      <c r="F34" s="12"/>
+      <c r="W33" s="62"/>
+    </row>
+    <row r="34" spans="2:25" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B34" s="87"/>
+      <c r="C34" s="71"/>
+      <c r="D34" s="72"/>
+      <c r="E34" s="73"/>
+      <c r="F34" s="10"/>
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
@@ -3404,133 +3718,145 @@
       <c r="O34" s="2"/>
       <c r="P34" s="2"/>
       <c r="Q34" s="2"/>
-      <c r="R34" s="13"/>
-      <c r="S34" s="104"/>
-      <c r="T34" s="105"/>
-      <c r="U34" s="106"/>
-      <c r="V34" s="51"/>
+      <c r="R34" s="11"/>
+      <c r="S34" s="53">
+        <v>44797</v>
+      </c>
+      <c r="T34" s="54"/>
+      <c r="U34" s="55"/>
+      <c r="V34" s="63" t="s">
+        <v>79</v>
+      </c>
       <c r="W34" s="52"/>
     </row>
-    <row r="35" spans="2:23" ht="21.75" customHeight="1" thickBot="1">
-      <c r="B35" s="113"/>
-      <c r="C35" s="110"/>
-      <c r="D35" s="111"/>
-      <c r="E35" s="112"/>
-      <c r="F35" s="20"/>
-      <c r="G35" s="21"/>
-      <c r="H35" s="21"/>
-      <c r="I35" s="21"/>
-      <c r="J35" s="21"/>
-      <c r="K35" s="21"/>
-      <c r="L35" s="21"/>
-      <c r="M35" s="21"/>
-      <c r="N35" s="21"/>
-      <c r="O35" s="21"/>
-      <c r="P35" s="21"/>
-      <c r="Q35" s="21"/>
-      <c r="R35" s="22"/>
-      <c r="S35" s="110"/>
-      <c r="T35" s="111"/>
-      <c r="U35" s="112"/>
-      <c r="V35" s="119"/>
-      <c r="W35" s="120"/>
-    </row>
-    <row r="36" spans="2:23" ht="21.75" customHeight="1" thickTop="1">
-      <c r="B36" s="101" t="s">
+    <row r="35" spans="2:25" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="89"/>
+      <c r="C35" s="56"/>
+      <c r="D35" s="57"/>
+      <c r="E35" s="58"/>
+      <c r="F35" s="17"/>
+      <c r="G35" s="18"/>
+      <c r="H35" s="18"/>
+      <c r="I35" s="18"/>
+      <c r="J35" s="18"/>
+      <c r="K35" s="18"/>
+      <c r="L35" s="18"/>
+      <c r="M35" s="18"/>
+      <c r="N35" s="18"/>
+      <c r="O35" s="18"/>
+      <c r="P35" s="18"/>
+      <c r="Q35" s="18"/>
+      <c r="R35" s="19"/>
+      <c r="S35" s="56"/>
+      <c r="T35" s="57"/>
+      <c r="U35" s="58"/>
+      <c r="V35" s="69"/>
+      <c r="W35" s="70"/>
+    </row>
+    <row r="36" spans="2:25" ht="21.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="B36" s="86" t="s">
         <v>26</v>
       </c>
-      <c r="C36" s="114" t="s">
+      <c r="C36" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="D36" s="115"/>
-      <c r="E36" s="116"/>
-      <c r="F36" s="114" t="s">
-        <v>39</v>
-      </c>
-      <c r="G36" s="115"/>
-      <c r="H36" s="115"/>
-      <c r="I36" s="115"/>
-      <c r="J36" s="115"/>
-      <c r="K36" s="115"/>
-      <c r="L36" s="115"/>
-      <c r="M36" s="139"/>
-      <c r="N36" s="140" t="s">
+      <c r="D36" s="46"/>
+      <c r="E36" s="74"/>
+      <c r="F36" s="45" t="s">
+        <v>81</v>
+      </c>
+      <c r="G36" s="46"/>
+      <c r="H36" s="46"/>
+      <c r="I36" s="46"/>
+      <c r="J36" s="46"/>
+      <c r="K36" s="46"/>
+      <c r="L36" s="46"/>
+      <c r="M36" s="47"/>
+      <c r="N36" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="O36" s="115"/>
-      <c r="P36" s="115"/>
-      <c r="Q36" s="115"/>
-      <c r="R36" s="115"/>
-      <c r="S36" s="115"/>
-      <c r="T36" s="115"/>
-      <c r="U36" s="115"/>
-      <c r="V36" s="115"/>
-      <c r="W36" s="141"/>
-    </row>
-    <row r="37" spans="2:23" ht="21.75" customHeight="1">
-      <c r="B37" s="102"/>
-      <c r="C37" s="51" t="s">
+      <c r="O36" s="46"/>
+      <c r="P36" s="46"/>
+      <c r="Q36" s="46"/>
+      <c r="R36" s="46"/>
+      <c r="S36" s="46"/>
+      <c r="T36" s="46"/>
+      <c r="U36" s="46"/>
+      <c r="V36" s="46"/>
+      <c r="W36" s="49"/>
+      <c r="X36" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y36">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="37" spans="2:25" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B37" s="87"/>
+      <c r="C37" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="D37" s="49"/>
-      <c r="E37" s="50"/>
-      <c r="F37" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="G37" s="8"/>
-      <c r="H37" s="8"/>
-      <c r="I37" s="8"/>
-      <c r="J37" s="8"/>
-      <c r="K37" s="8"/>
-      <c r="L37" s="8"/>
-      <c r="M37" s="8"/>
-      <c r="N37" s="8"/>
-      <c r="O37" s="8"/>
-      <c r="P37" s="8"/>
-      <c r="Q37" s="8"/>
-      <c r="R37" s="8"/>
-      <c r="S37" s="8"/>
-      <c r="T37" s="8"/>
-      <c r="U37" s="8"/>
-      <c r="V37" s="8"/>
-      <c r="W37" s="16"/>
-    </row>
-    <row r="38" spans="2:23" ht="21.75" customHeight="1">
-      <c r="B38" s="102"/>
-      <c r="C38" s="104" t="s">
+      <c r="D37" s="51"/>
+      <c r="E37" s="77"/>
+      <c r="F37" s="80">
+        <v>44804</v>
+      </c>
+      <c r="G37" s="81"/>
+      <c r="H37" s="81"/>
+      <c r="I37" s="81"/>
+      <c r="J37" s="82"/>
+      <c r="K37" s="83" t="s">
+        <v>76</v>
+      </c>
+      <c r="L37" s="84"/>
+      <c r="M37" s="84"/>
+      <c r="N37" s="84"/>
+      <c r="O37" s="84"/>
+      <c r="P37" s="84"/>
+      <c r="Q37" s="84"/>
+      <c r="R37" s="84"/>
+      <c r="S37" s="84"/>
+      <c r="T37" s="84"/>
+      <c r="U37" s="84"/>
+      <c r="V37" s="84"/>
+      <c r="W37" s="85"/>
+    </row>
+    <row r="38" spans="2:25" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B38" s="87"/>
+      <c r="C38" s="68" t="s">
         <v>24</v>
       </c>
-      <c r="D38" s="105"/>
-      <c r="E38" s="106"/>
-      <c r="F38" s="9"/>
-      <c r="G38" s="10"/>
-      <c r="H38" s="10"/>
-      <c r="I38" s="10"/>
-      <c r="J38" s="10"/>
-      <c r="K38" s="10"/>
-      <c r="L38" s="10"/>
-      <c r="M38" s="10"/>
-      <c r="N38" s="10"/>
-      <c r="O38" s="10"/>
-      <c r="P38" s="10"/>
-      <c r="Q38" s="10"/>
-      <c r="R38" s="10"/>
+      <c r="D38" s="54"/>
+      <c r="E38" s="55"/>
+      <c r="F38" s="7"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="8"/>
+      <c r="I38" s="8"/>
+      <c r="J38" s="8"/>
+      <c r="K38" s="8"/>
+      <c r="L38" s="8"/>
+      <c r="M38" s="8"/>
+      <c r="N38" s="8"/>
+      <c r="O38" s="8"/>
+      <c r="P38" s="8"/>
+      <c r="Q38" s="8"/>
+      <c r="R38" s="8"/>
       <c r="S38" s="5"/>
-      <c r="T38" s="51" t="s">
+      <c r="T38" s="63" t="s">
         <v>32</v>
       </c>
-      <c r="U38" s="50"/>
-      <c r="V38" s="87" t="s">
+      <c r="U38" s="77"/>
+      <c r="V38" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="W38" s="90"/>
-    </row>
-    <row r="39" spans="2:23" ht="21.75" customHeight="1">
-      <c r="B39" s="102"/>
-      <c r="C39" s="107"/>
-      <c r="D39" s="108"/>
-      <c r="E39" s="109"/>
-      <c r="F39" s="12"/>
+      <c r="W38" s="62"/>
+    </row>
+    <row r="39" spans="2:25" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B39" s="87"/>
+      <c r="C39" s="71"/>
+      <c r="D39" s="72"/>
+      <c r="E39" s="73"/>
+      <c r="F39" s="10"/>
       <c r="G39" s="2"/>
       <c r="H39" s="2"/>
       <c r="I39" s="2"/>
@@ -3544,17 +3870,21 @@
       <c r="Q39" s="2"/>
       <c r="R39" s="2"/>
       <c r="S39" s="6"/>
-      <c r="T39" s="51"/>
-      <c r="U39" s="50"/>
-      <c r="V39" s="49"/>
+      <c r="T39" s="63" t="s">
+        <v>80</v>
+      </c>
+      <c r="U39" s="77"/>
+      <c r="V39" s="51" t="s">
+        <v>79</v>
+      </c>
       <c r="W39" s="52"/>
     </row>
-    <row r="40" spans="2:23" ht="21.75" customHeight="1" thickBot="1">
-      <c r="B40" s="103"/>
-      <c r="C40" s="117"/>
-      <c r="D40" s="59"/>
-      <c r="E40" s="118"/>
-      <c r="F40" s="28"/>
+    <row r="40" spans="2:25" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B40" s="88"/>
+      <c r="C40" s="90"/>
+      <c r="D40" s="91"/>
+      <c r="E40" s="92"/>
+      <c r="F40" s="25"/>
       <c r="G40" s="4"/>
       <c r="H40" s="4"/>
       <c r="I40" s="4"/>
@@ -3567,13 +3897,13 @@
       <c r="P40" s="4"/>
       <c r="Q40" s="4"/>
       <c r="R40" s="4"/>
-      <c r="S40" s="29"/>
-      <c r="T40" s="134"/>
-      <c r="U40" s="135"/>
-      <c r="V40" s="132"/>
-      <c r="W40" s="133"/>
-    </row>
-    <row r="41" spans="2:23" ht="21.75" customHeight="1">
+      <c r="S40" s="26"/>
+      <c r="T40" s="78"/>
+      <c r="U40" s="79"/>
+      <c r="V40" s="75"/>
+      <c r="W40" s="76"/>
+    </row>
+    <row r="41" spans="2:25" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -3597,7 +3927,7 @@
       <c r="V41" s="1"/>
       <c r="W41" s="1"/>
     </row>
-    <row r="42" spans="2:23" ht="21.75" customHeight="1">
+    <row r="42" spans="2:25" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
@@ -3622,21 +3952,63 @@
       <c r="W42" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="84">
-    <mergeCell ref="C37:E37"/>
-    <mergeCell ref="F36:M36"/>
-    <mergeCell ref="N36:W36"/>
-    <mergeCell ref="N32:W32"/>
-    <mergeCell ref="S34:U35"/>
-    <mergeCell ref="S33:U33"/>
-    <mergeCell ref="V33:W33"/>
-    <mergeCell ref="F32:M32"/>
-    <mergeCell ref="V29:W30"/>
-    <mergeCell ref="F31:M31"/>
+  <mergeCells count="86">
+    <mergeCell ref="N6:W6"/>
+    <mergeCell ref="E9:J9"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="K6:M6"/>
+    <mergeCell ref="E6:J6"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="N7:W7"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="N5:W5"/>
+    <mergeCell ref="V3:W4"/>
+    <mergeCell ref="V2:W2"/>
+    <mergeCell ref="S2:U2"/>
+    <mergeCell ref="S3:U4"/>
+    <mergeCell ref="E5:J5"/>
+    <mergeCell ref="K5:M5"/>
+    <mergeCell ref="B2:M4"/>
+    <mergeCell ref="N2:R4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="S14:T14"/>
+    <mergeCell ref="V14:W14"/>
+    <mergeCell ref="P14:Q14"/>
     <mergeCell ref="S17:U17"/>
-    <mergeCell ref="F25:R25"/>
-    <mergeCell ref="S24:U25"/>
-    <mergeCell ref="S29:U30"/>
+    <mergeCell ref="V17:W17"/>
+    <mergeCell ref="C17:E19"/>
+    <mergeCell ref="K7:M7"/>
+    <mergeCell ref="E7:J7"/>
+    <mergeCell ref="E8:J8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="K9:M9"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="K8:M8"/>
+    <mergeCell ref="M14:O14"/>
+    <mergeCell ref="B10:D14"/>
+    <mergeCell ref="N16:W16"/>
+    <mergeCell ref="F16:M16"/>
+    <mergeCell ref="N8:W8"/>
+    <mergeCell ref="N9:W9"/>
+    <mergeCell ref="V18:W19"/>
+    <mergeCell ref="B36:B40"/>
+    <mergeCell ref="C33:E35"/>
+    <mergeCell ref="B15:B19"/>
+    <mergeCell ref="B20:B25"/>
+    <mergeCell ref="C23:E25"/>
+    <mergeCell ref="C36:E36"/>
+    <mergeCell ref="B31:B35"/>
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="C38:E40"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="C28:E30"/>
+    <mergeCell ref="B26:B30"/>
+    <mergeCell ref="C20:E22"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="C16:E16"/>
     <mergeCell ref="C26:E26"/>
     <mergeCell ref="V39:W40"/>
     <mergeCell ref="N27:W27"/>
@@ -3647,66 +4019,26 @@
     <mergeCell ref="N31:W31"/>
     <mergeCell ref="T38:U38"/>
     <mergeCell ref="V34:W35"/>
+    <mergeCell ref="F27:M27"/>
+    <mergeCell ref="F37:J37"/>
+    <mergeCell ref="K37:W37"/>
+    <mergeCell ref="V29:W30"/>
+    <mergeCell ref="F31:M31"/>
+    <mergeCell ref="C37:E37"/>
+    <mergeCell ref="F25:R25"/>
+    <mergeCell ref="S24:U25"/>
+    <mergeCell ref="S29:U30"/>
     <mergeCell ref="V24:W25"/>
     <mergeCell ref="S18:U19"/>
     <mergeCell ref="V23:W23"/>
-    <mergeCell ref="B10:D14"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="C28:E30"/>
-    <mergeCell ref="B26:B30"/>
-    <mergeCell ref="C20:E22"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="B36:B40"/>
-    <mergeCell ref="C33:E35"/>
-    <mergeCell ref="B15:B19"/>
-    <mergeCell ref="B20:B25"/>
-    <mergeCell ref="C23:E25"/>
-    <mergeCell ref="C36:E36"/>
-    <mergeCell ref="B31:B35"/>
-    <mergeCell ref="C31:E31"/>
-    <mergeCell ref="C32:E32"/>
-    <mergeCell ref="C38:E40"/>
-    <mergeCell ref="F27:M27"/>
-    <mergeCell ref="V17:W17"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="N7:W7"/>
-    <mergeCell ref="K8:M8"/>
-    <mergeCell ref="S14:T14"/>
-    <mergeCell ref="V14:W14"/>
-    <mergeCell ref="M14:O14"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="B2:M4"/>
-    <mergeCell ref="N2:R4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="N16:W16"/>
     <mergeCell ref="S23:U23"/>
-    <mergeCell ref="F16:M16"/>
-    <mergeCell ref="N8:W8"/>
-    <mergeCell ref="N9:W9"/>
-    <mergeCell ref="V18:W19"/>
-    <mergeCell ref="C17:E19"/>
-    <mergeCell ref="K7:M7"/>
-    <mergeCell ref="E7:J7"/>
-    <mergeCell ref="E8:J8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="N5:W5"/>
-    <mergeCell ref="V3:W4"/>
-    <mergeCell ref="V2:W2"/>
-    <mergeCell ref="S2:U2"/>
-    <mergeCell ref="S3:U4"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E5:J5"/>
-    <mergeCell ref="K5:M5"/>
-    <mergeCell ref="K9:M9"/>
-    <mergeCell ref="N6:W6"/>
-    <mergeCell ref="E9:J9"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="K6:M6"/>
-    <mergeCell ref="E6:J6"/>
-    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="F36:M36"/>
+    <mergeCell ref="N36:W36"/>
+    <mergeCell ref="N32:W32"/>
+    <mergeCell ref="S34:U35"/>
+    <mergeCell ref="S33:U33"/>
+    <mergeCell ref="V33:W33"/>
+    <mergeCell ref="F32:M32"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="3">
